--- a/CS563-Project/Project/bug_issues.xlsx
+++ b/CS563-Project/Project/bug_issues.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10020\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coding space\CS563-Project\CS563-Project\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A82209-1F88-437F-89AC-2905E7220802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6FDEE1-D119-489F-A77D-02B7D3930B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4C936875-A8AD-44C1-AC4D-C9DACADF0C79}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="146">
   <si>
     <t>serial_number</t>
   </si>
@@ -471,13 +471,16 @@
   </si>
   <si>
     <t>Format</t>
+  </si>
+  <si>
+    <t>Missing/Null value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,6 +506,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -541,11 +551,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -885,15 +896,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7476DB2-46DC-4034-9BDF-891A4079F807}">
   <dimension ref="A1:H110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" customWidth="1"/>
+    <col min="3" max="3" width="108.85546875" customWidth="1"/>
     <col min="4" max="4" width="30.42578125" customWidth="1"/>
     <col min="5" max="5" width="44.7109375" customWidth="1"/>
   </cols>
@@ -1279,10 +1290,10 @@
       <c r="C25" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D25" t="s">
-        <v>132</v>
-      </c>
-      <c r="E25" s="1"/>
+      <c r="D25" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
